--- a/09-septiembre/6-portal-cliente/2025-septiembre/ESCALA JUL 25-ENE 26 completa.xlsx
+++ b/09-septiembre/6-portal-cliente/2025-septiembre/ESCALA JUL 25-ENE 26 completa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\2025-septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9AFDC-446C-42E1-AD30-36CB949774F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440FCF42-EF58-4758-9DF3-D088DF851E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22272" yWindow="516" windowWidth="11292" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21120" yWindow="1140" windowWidth="14640" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1999,9 +1999,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3456,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -3840,7 +3837,7 @@
       <c r="C28" s="58">
         <v>1075307.1000000001</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="60">
         <v>40000</v>
       </c>
       <c r="E28" s="31"/>
@@ -3849,40 +3846,40 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68">
+      <c r="B29" s="66"/>
+      <c r="C29" s="67">
         <f>+C28/2</f>
         <v>537653.55000000005</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="67">
         <f t="shared" ref="D29:F29" si="0">+D28/2</f>
         <v>20000</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="68">
         <f t="shared" si="0"/>
         <v>557653.55000000005</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62">
+      <c r="A30" s="61">
         <v>45931</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="63" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="63">
         <v>40000</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="65" t="s">
         <v>30</v>
       </c>
     </row>
